--- a/results/basic/percentages.xlsx
+++ b/results/basic/percentages.xlsx
@@ -13,7 +13,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day5" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,7 +820,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -901,7 +900,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.14285714285714</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +941,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.66666666666666</v>
+        <v>61.53846153846154</v>
       </c>
     </row>
     <row r="3">
@@ -972,7 +971,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="6">
@@ -982,7 +981,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="7">
@@ -992,7 +991,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +1001,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="9">
@@ -1022,7 +1021,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
   </sheetData>
@@ -1149,125 +1148,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HDE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HQD</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HQDE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HQE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/results/basic/percentages.xlsx
+++ b/results/basic/percentages.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="day1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="day2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="day3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="day4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="day5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="day6" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.71428571428571</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="3">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.53846153846154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/results/basic/percentages.xlsx
+++ b/results/basic/percentages.xlsx
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.5</v>
+        <v>77.77777777777779</v>
       </c>
     </row>
     <row r="3">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="10">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
   </sheetData>
